--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="4245" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="4245" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="BWater" sheetId="8" r:id="rId10"/>
     <sheet name="BWaste" sheetId="9" r:id="rId11"/>
     <sheet name="NewParkingProject" sheetId="11" r:id="rId12"/>
+    <sheet name="MyPortfolios" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I12"/>
+  <oleSize ref="A1:S21"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="338">
   <si>
     <t>Project Name</t>
   </si>
@@ -639,12 +640,6 @@
     <t>$ 1500.00</t>
   </si>
   <si>
-    <t>US Building None 382094</t>
-  </si>
-  <si>
-    <t>US Building Other 271067</t>
-  </si>
-  <si>
     <t>CommunityLeed 35133</t>
   </si>
   <si>
@@ -894,10 +889,163 @@
     <t>338</t>
   </si>
   <si>
-    <t>US Building LEED v4 617242</t>
-  </si>
-  <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>US Building None 256265</t>
+  </si>
+  <si>
+    <t>US Building Other 529418</t>
+  </si>
+  <si>
+    <t>CPReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBValue </t>
+  </si>
+  <si>
+    <t>US Building LEED v4 160296</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Cunit</t>
+  </si>
+  <si>
+    <t>CTextBox</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 energy and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of carbon in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic carbon are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>EPReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBValue </t>
+  </si>
+  <si>
+    <t>Eunit</t>
+  </si>
+  <si>
+    <t>kBtu</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ETextBox</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 Carbon and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of carbon in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic carbon are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>WPReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBValue </t>
+  </si>
+  <si>
+    <t>Wunit</t>
+  </si>
+  <si>
+    <t>WTextBox</t>
+  </si>
+  <si>
+    <t>WastePReduction</t>
+  </si>
+  <si>
+    <t>Wasteunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WasteBValue </t>
+  </si>
+  <si>
+    <t>WasteTextBox</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 water and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of Water in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic carbon are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 waste and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of Waste in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic carbon are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>TReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBValue </t>
+  </si>
+  <si>
+    <t>Tunit</t>
+  </si>
+  <si>
+    <t>TTextBox</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 water and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of Transportaion in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic carbon are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>HReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBValue </t>
+  </si>
+  <si>
+    <t>Hunit</t>
+  </si>
+  <si>
+    <t>HTextBox</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 Human Experiance and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of Transportaion in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic carbon are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>Average Score</t>
+  </si>
+  <si>
+    <t>CertReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CertBValue </t>
+  </si>
+  <si>
+    <t>Certunit</t>
+  </si>
+  <si>
+    <t>CertTextBox</t>
+  </si>
+  <si>
+    <t>Certifications</t>
+  </si>
+  <si>
+    <t>Achieved a 100% reduction from 2016 Human Experiance and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of Transportaion in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic certfication are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
+  </si>
+  <si>
+    <t>US Building None 538965</t>
+  </si>
+  <si>
+    <t>US Building Other 586740</t>
+  </si>
+  <si>
+    <t>US Building Underground 573167</t>
+  </si>
+  <si>
+    <t>US Building Underground 366302</t>
+  </si>
+  <si>
+    <t>US Building Underground 293120</t>
+  </si>
+  <si>
+    <t>US Building Underground 734677</t>
+  </si>
+  <si>
+    <t>US Building Underground 95573</t>
   </si>
 </sst>
 </file>
@@ -1336,39 +1484,39 @@
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.9609375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.89453125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1463,21 +1611,21 @@
         <v>194</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AF1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1536,7 +1684,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1584,7 +1732,7 @@
         <v>43</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>46</v>
@@ -1596,21 +1744,21 @@
         <v>50</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>162</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1666,7 +1814,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1722,7 +1870,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1798,12 +1946,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1959,16 +2107,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,12 +2321,12 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2201,13 +2349,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -2228,12 +2376,12 @@
         <v>193</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -2251,19 +2399,19 @@
         <v>53</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>53</v>
@@ -2272,18 +2420,18 @@
         <v>118</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -2301,19 +2449,19 @@
         <v>53</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>53</v>
@@ -2322,18 +2470,18 @@
         <v>118</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -2351,19 +2499,19 @@
         <v>53</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="K4" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>53</v>
@@ -2372,18 +2520,18 @@
         <v>118</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -2401,19 +2549,19 @@
         <v>53</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>53</v>
@@ -2422,18 +2570,18 @@
         <v>118</v>
       </c>
       <c r="N5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2451,19 +2599,19 @@
         <v>53</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>53</v>
@@ -2472,18 +2620,18 @@
         <v>118</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2501,19 +2649,19 @@
         <v>53</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>53</v>
@@ -2522,13 +2670,13 @@
         <v>118</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2536,6 +2684,285 @@
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="S2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W2" t="s">
+        <v>324</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" t="s">
+        <v>312</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="S3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="W3" t="s">
+        <v>324</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2543,13 +2970,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2604,16 +3031,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2679,7 +3106,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -2700,7 +3127,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>87</v>
@@ -2721,7 +3148,7 @@
         <v>183</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -2732,7 +3159,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -2753,7 +3180,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>89</v>
@@ -2774,7 +3201,7 @@
         <v>93</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -2785,7 +3212,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -2806,7 +3233,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>96</v>
@@ -2827,7 +3254,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -2854,20 +3281,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2933,7 +3360,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
@@ -2954,7 +3381,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>103</v>
@@ -2975,7 +3402,7 @@
         <v>106</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -2986,7 +3413,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -3007,7 +3434,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>107</v>
@@ -3028,7 +3455,7 @@
         <v>110</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -3039,7 +3466,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
@@ -3060,7 +3487,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
@@ -3081,7 +3508,7 @@
         <v>116</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -3110,15 +3537,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3398,7 +3825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,139 +3891,139 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.140625" customWidth="1"/>
-    <col min="32" max="32" width="24.5703125" customWidth="1"/>
-    <col min="33" max="33" width="26" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AC1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL1" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN1" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AO1" s="14"/>
     </row>
@@ -3692,34 +4119,34 @@
         <v>22</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -3814,34 +4241,34 @@
         <v>22</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -3936,34 +4363,34 @@
         <v>22</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -4058,34 +4485,34 @@
         <v>22</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AH5" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4104,8 +4531,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,10 +4599,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="4245" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="4245" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="MyPortfolios" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S21"/>
+  <oleSize ref="A1:I12"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="341">
   <si>
     <t>Project Name</t>
   </si>
@@ -856,9 +856,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>US Building Aboveground 704159</t>
-  </si>
-  <si>
     <t>TMAnnualRidership</t>
   </si>
   <si>
@@ -892,21 +889,12 @@
     <t>14</t>
   </si>
   <si>
-    <t>US Building None 256265</t>
-  </si>
-  <si>
-    <t>US Building Other 529418</t>
-  </si>
-  <si>
     <t>CPReduction</t>
   </si>
   <si>
     <t xml:space="preserve">CBValue </t>
   </si>
   <si>
-    <t>US Building LEED v4 160296</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -1027,25 +1015,46 @@
     <t>Achieved a 100% reduction from 2016 Human Experiance and GHG emissions levels by 2018, a goal derived using the Science-Based Targets SDA.The most common oxidation state of Transportaion in inorganic compounds is +4, while +2 is found in carbon monoxide and transition metal carbonyl complexes. The largest sources of inorganic certfication are limestones, dolomites and carbon dioxide, but significant quantities occur in organic deposits of coal, peat, oil, and methane clathrates. Carbon forms a vast number of compounds, more than any other element, with almost ten million compounds described to date Draft Tool</t>
   </si>
   <si>
-    <t>US Building None 538965</t>
-  </si>
-  <si>
-    <t>US Building Other 586740</t>
-  </si>
-  <si>
-    <t>US Building Underground 573167</t>
-  </si>
-  <si>
-    <t>US Building Underground 366302</t>
-  </si>
-  <si>
-    <t>US Building Underground 293120</t>
-  </si>
-  <si>
-    <t>US Building Underground 734677</t>
-  </si>
-  <si>
-    <t>US Building Underground 95573</t>
+    <t>US Building None 655622</t>
+  </si>
+  <si>
+    <t>US Building Other 337483</t>
+  </si>
+  <si>
+    <t>US Building Aboveground 785616</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 220304</t>
+  </si>
+  <si>
+    <t>usgbcarc@gmail.com</t>
+  </si>
+  <si>
+    <t>initpass</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 443851</t>
+  </si>
+  <si>
+    <t>US Building Other 487699</t>
+  </si>
+  <si>
+    <t>US Building Parking 377117</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 241224</t>
+  </si>
+  <si>
+    <t>US Building Other 392847</t>
+  </si>
+  <si>
+    <t>US Building Parking 292505</t>
+  </si>
+  <si>
+    <t>US Building None 478768</t>
+  </si>
+  <si>
+    <t>US Building Other 714074</t>
   </si>
 </sst>
 </file>
@@ -1611,13 +1620,13 @@
         <v>194</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF1" t="s">
         <v>270</v>
       </c>
       <c r="AG1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH1" t="s">
         <v>271</v>
@@ -1625,7 +1634,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1684,7 +1693,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1743,6 +1752,9 @@
       <c r="U3" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="AB3" t="s">
+        <v>201</v>
+      </c>
       <c r="AE3" s="4" t="s">
         <v>272</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>273</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -1814,7 +1826,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1870,7 +1882,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -2326,7 +2338,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.5078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2381,7 +2393,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -2692,96 +2704,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -2789,99 +2801,99 @@
         <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>208</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S2" t="s">
         <v>208</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AA2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>208</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>162</v>
@@ -2890,10 +2902,10 @@
         <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>162</v>
@@ -2902,10 +2914,10 @@
         <v>273</v>
       </c>
       <c r="K3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>162</v>
@@ -2914,10 +2926,10 @@
         <v>273</v>
       </c>
       <c r="O3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>162</v>
@@ -2929,7 +2941,7 @@
         <v>208</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>162</v>
@@ -2938,10 +2950,10 @@
         <v>273</v>
       </c>
       <c r="W3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>162</v>
@@ -2950,10 +2962,10 @@
         <v>273</v>
       </c>
       <c r="AA3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25"/>
@@ -3127,7 +3139,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>87</v>
@@ -3148,7 +3160,7 @@
         <v>183</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -3180,7 +3192,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>89</v>
@@ -3201,7 +3213,7 @@
         <v>93</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -3233,7 +3245,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>96</v>
@@ -3254,7 +3266,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -3275,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,7 +3393,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>103</v>
@@ -3402,7 +3414,7 @@
         <v>106</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -3434,7 +3446,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>107</v>
@@ -3455,7 +3467,7 @@
         <v>110</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -3487,7 +3499,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
@@ -3508,7 +3520,7 @@
         <v>116</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -3819,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,10 +3850,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3877,6 +3889,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
